--- a/My 3D RPG/Assets/StaticData/Excel/Character.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Character.xlsx
@@ -66,15 +66,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kohaku</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Actor/Character/Otori Kohaku</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오토리 코하쿠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,12 +430,12 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="37.5" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="6" width="15.625" style="1" customWidth="1"/>
@@ -501,13 +501,13 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>3.5</v>
@@ -516,10 +516,10 @@
         <v>60</v>
       </c>
       <c r="G3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">

--- a/My 3D RPG/Assets/StaticData/Excel/Character.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Character.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
